--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/AD/15/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/AD/15/seed3/result_data_RandomForest.xlsx
@@ -494,7 +494,7 @@
         <v>-13.95</v>
       </c>
       <c r="D4" t="n">
-        <v>-7.690100000000004</v>
+        <v>-7.653400000000001</v>
       </c>
     </row>
     <row r="5">
@@ -541,7 +541,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-22.27580000000001</v>
+        <v>-22.30630000000001</v>
       </c>
       <c r="B8" t="n">
         <v>2.91</v>
@@ -569,7 +569,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-22.05970000000001</v>
+        <v>-22.10229999999999</v>
       </c>
       <c r="B10" t="n">
         <v>6.17</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.4188</v>
+        <v>-21.4483</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -606,7 +606,7 @@
         <v>-9.76</v>
       </c>
       <c r="D12" t="n">
-        <v>-5.972199999999999</v>
+        <v>-5.961499999999997</v>
       </c>
     </row>
     <row r="13">
@@ -648,7 +648,7 @@
         <v>-13.12</v>
       </c>
       <c r="D15" t="n">
-        <v>-8.152699999999999</v>
+        <v>-8.247399999999995</v>
       </c>
     </row>
     <row r="16">
@@ -676,12 +676,12 @@
         <v>-14.84</v>
       </c>
       <c r="D17" t="n">
-        <v>-8.338499999999987</v>
+        <v>-8.364099999999992</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.15890000000001</v>
+        <v>-22.08370000000001</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -802,7 +802,7 @@
         <v>-10.59</v>
       </c>
       <c r="D26" t="n">
-        <v>-6.880000000000003</v>
+        <v>-7.331000000000002</v>
       </c>
     </row>
     <row r="27">
@@ -816,7 +816,7 @@
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-7.956499999999997</v>
+        <v>-7.8538</v>
       </c>
     </row>
     <row r="28">
@@ -830,7 +830,7 @@
         <v>-11.8</v>
       </c>
       <c r="D28" t="n">
-        <v>-7.946199999999997</v>
+        <v>-7.788099999999998</v>
       </c>
     </row>
     <row r="29">
@@ -947,7 +947,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-19.87589999999998</v>
+        <v>-20.02139999999998</v>
       </c>
       <c r="B37" t="n">
         <v>9.41</v>
@@ -956,7 +956,7 @@
         <v>-12.29</v>
       </c>
       <c r="D37" t="n">
-        <v>-7.902400000000003</v>
+        <v>-7.852799999999997</v>
       </c>
     </row>
     <row r="38">
@@ -1096,7 +1096,7 @@
         <v>-11.84</v>
       </c>
       <c r="D47" t="n">
-        <v>-7.822699999999995</v>
+        <v>-7.715599999999998</v>
       </c>
     </row>
     <row r="48">
@@ -1199,7 +1199,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-21.86030000000001</v>
+        <v>-21.94080000000001</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1348,7 +1348,7 @@
         <v>-11.86</v>
       </c>
       <c r="D65" t="n">
-        <v>-7.9365</v>
+        <v>-7.877300000000004</v>
       </c>
     </row>
     <row r="66">
@@ -1381,7 +1381,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-21.43959999999999</v>
+        <v>-21.36739999999999</v>
       </c>
       <c r="B68" t="n">
         <v>4.88</v>
@@ -1460,7 +1460,7 @@
         <v>-15.02</v>
       </c>
       <c r="D73" t="n">
-        <v>-8.183199999999994</v>
+        <v>-8.197199999999993</v>
       </c>
     </row>
     <row r="74">
@@ -1507,7 +1507,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-20.08559999999999</v>
+        <v>-19.98309999999999</v>
       </c>
       <c r="B77" t="n">
         <v>10.09</v>
@@ -1521,7 +1521,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-19.49219999999998</v>
+        <v>-19.71289999999998</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1563,7 +1563,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-21.92550000000001</v>
+        <v>-22.0777</v>
       </c>
       <c r="B81" t="n">
         <v>3.85</v>
@@ -1577,7 +1577,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-21.77920000000001</v>
+        <v>-21.73870000000001</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1614,7 +1614,7 @@
         <v>-12.28</v>
       </c>
       <c r="D84" t="n">
-        <v>-8.101200000000002</v>
+        <v>-7.6134</v>
       </c>
     </row>
     <row r="85">
@@ -1628,7 +1628,7 @@
         <v>-13.1</v>
       </c>
       <c r="D85" t="n">
-        <v>-8.7363</v>
+        <v>-8.589299999999998</v>
       </c>
     </row>
     <row r="86">
@@ -1740,7 +1740,7 @@
         <v>-10.09</v>
       </c>
       <c r="D93" t="n">
-        <v>-6.901599999999993</v>
+        <v>-6.749599999999991</v>
       </c>
     </row>
     <row r="94">
@@ -1768,7 +1768,7 @@
         <v>-11.3</v>
       </c>
       <c r="D95" t="n">
-        <v>-7.5804</v>
+        <v>-7.600900000000004</v>
       </c>
     </row>
     <row r="96">
@@ -1810,7 +1810,7 @@
         <v>-10.59</v>
       </c>
       <c r="D98" t="n">
-        <v>-7.036699999999999</v>
+        <v>-7.487600000000001</v>
       </c>
     </row>
     <row r="99">
@@ -1824,7 +1824,7 @@
         <v>-13.93</v>
       </c>
       <c r="D99" t="n">
-        <v>-7.819000000000004</v>
+        <v>-7.929300000000003</v>
       </c>
     </row>
     <row r="100">
@@ -1852,7 +1852,7 @@
         <v>-15.77</v>
       </c>
       <c r="D101" t="n">
-        <v>-8.371599999999995</v>
+        <v>-8.597599999999991</v>
       </c>
     </row>
     <row r="102">
